--- a/Libros/pobrezaCSV.xlsx
+++ b/Libros/pobrezaCSV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,21 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Q. 4,318</t>
-  </si>
-  <si>
-    <t>Q. 6,574</t>
-  </si>
-  <si>
-    <t>Q. 10,218</t>
   </si>
   <si>
     <t>Indígena</t>
@@ -410,8 +401,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -432,24 +423,24 @@
       <c r="A2" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
+      <c r="B2" s="0" t="n">
+        <v>4318</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
+      <c r="B3" s="0" t="n">
+        <v>6574</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
+      <c r="B4" s="0" t="n">
+        <v>10218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +834,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="18" t="n">
         <v>8.475522441496</v>
@@ -851,7 +842,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="18" t="n">
         <v>16.130494774241</v>
@@ -859,7 +850,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="18" t="n">
         <v>10.695060197277</v>
@@ -867,7 +858,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>23.7839182545835</v>
@@ -875,7 +866,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="18" t="n">
         <v>14.861284923839</v>
@@ -883,7 +874,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>16.3917336090222</v>
@@ -891,7 +882,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>33.386831299638</v>
@@ -899,7 +890,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>34.001683035641</v>
@@ -907,7 +898,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>18.324164802197</v>
@@ -915,7 +906,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>20.869928043803</v>
@@ -923,7 +914,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>18.195339502696</v>
@@ -931,7 +922,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="18" t="n">
         <v>21.97457540511</v>
@@ -939,7 +930,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>28.1106732594477</v>
@@ -947,7 +938,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>32.3403533636896</v>
@@ -955,7 +946,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>23.6664477239799</v>
@@ -963,7 +954,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>40.0669844753696</v>
@@ -971,7 +962,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="18" t="n">
         <v>21.7215745788994</v>
@@ -979,7 +970,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>27.4684661523729</v>
@@ -987,7 +978,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>20.621842513134</v>
@@ -995,7 +986,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>33.925204849854</v>
@@ -1003,7 +994,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>23.212850734251</v>
@@ -1011,7 +1002,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="18" t="n">
         <v>23.391107151831</v>
@@ -1310,7 +1301,7 @@
   </sheetPr>
   <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1330,7 +1321,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="22" t="n">
         <v>70.1138131411546</v>
@@ -1338,7 +1329,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="22" t="n">
         <v>70.3386269988124</v>
@@ -1346,7 +1337,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="22" t="n">
         <v>67.3464227240395</v>
@@ -1354,7 +1345,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="22" t="n">
         <v>63.4863212160658</v>
@@ -1362,7 +1353,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="22" t="n">
         <v>68.2225355103856</v>
@@ -1370,7 +1361,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="22" t="n">
         <v>58.860187497789</v>
@@ -1479,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Libros/pobrezaCSV.xlsx
+++ b/Libros/pobrezaCSV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -56,72 +56,6 @@
   </si>
   <si>
     <t>Pobreza extrema</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>El Progreso</t>
-  </si>
-  <si>
-    <t>Sacatepéquez</t>
-  </si>
-  <si>
-    <t>Chimaltenango</t>
-  </si>
-  <si>
-    <t>Escuintla</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Sololá</t>
-  </si>
-  <si>
-    <t>Totonicapán</t>
-  </si>
-  <si>
-    <t>Quetzaltenango</t>
-  </si>
-  <si>
-    <t>Suchitepéquez</t>
-  </si>
-  <si>
-    <t>Retalhuleu</t>
-  </si>
-  <si>
-    <t>San Marcos</t>
-  </si>
-  <si>
-    <t>Huehuetenango</t>
-  </si>
-  <si>
-    <t>Quiché</t>
-  </si>
-  <si>
-    <t>Baja Verapaz</t>
-  </si>
-  <si>
-    <t>Alta Verapaz</t>
-  </si>
-  <si>
-    <t>Petén</t>
-  </si>
-  <si>
-    <t>Izabal</t>
-  </si>
-  <si>
-    <t>Zacapa</t>
-  </si>
-  <si>
-    <t>Chiquimula</t>
-  </si>
-  <si>
-    <t>Jalapa</t>
-  </si>
-  <si>
-    <t>Jutiapa</t>
   </si>
   <si>
     <t>De 0 a 4</t>
@@ -289,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,10 +305,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,14 +331,13 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A2:A23 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,14 +406,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,13 +618,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A23 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,13 +679,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A23 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,15 +739,14 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,176 +758,176 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
+      <c r="A2" s="17" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="18" t="n">
         <v>8.475522441496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>8</v>
+      <c r="A3" s="17" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="18" t="n">
         <v>16.130494774241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>9</v>
+      <c r="A4" s="17" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="18" t="n">
         <v>10.695060197277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>10</v>
+      <c r="A5" s="17" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>23.7839182545835</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>11</v>
+      <c r="A6" s="17" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="18" t="n">
         <v>14.861284923839</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>12</v>
+      <c r="A7" s="17" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>16.3917336090222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>13</v>
+      <c r="A8" s="17" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>33.386831299638</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>14</v>
+      <c r="A9" s="17" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>34.001683035641</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
+      <c r="A10" s="17" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>18.324164802197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>16</v>
+      <c r="A11" s="17" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>20.869928043803</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>17</v>
+      <c r="A12" s="17" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>18.195339502696</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>18</v>
+      <c r="A13" s="17" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="18" t="n">
         <v>21.97457540511</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>19</v>
+      <c r="A14" s="17" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>28.1106732594477</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>20</v>
+      <c r="A15" s="17" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>32.3403533636896</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>21</v>
+      <c r="A16" s="17" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>23.6664477239799</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>22</v>
+      <c r="A17" s="17" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>40.0669844753696</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>23</v>
+      <c r="A18" s="17" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="18" t="n">
         <v>21.7215745788994</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>24</v>
+      <c r="A19" s="17" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>27.4684661523729</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>25</v>
+      <c r="A20" s="17" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>20.621842513134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>26</v>
+      <c r="A21" s="17" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>33.925204849854</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>27</v>
+      <c r="A22" s="17" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>23.212850734251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>28</v>
+      <c r="A23" s="17" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="18" t="n">
         <v>23.391107151831</v>
@@ -1027,13 +952,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A23 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,14 +1013,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,13 +1225,13 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,50 +1243,50 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="22" t="n">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="21" t="n">
         <v>70.1138131411546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="22" t="n">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="21" t="n">
         <v>70.3386269988124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="22" t="n">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="21" t="n">
         <v>67.3464227240395</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="22" t="n">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21" t="n">
         <v>63.4863212160658</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21" t="n">
         <v>68.2225355103856</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="21" t="n">
         <v>58.860187497789</v>
       </c>
     </row>
@@ -1394,13 +1317,12 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A2:A23 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,13 +1378,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A2:A23 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,13 +1465,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,14 +1539,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A2:A23 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,13 +1751,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A2:A23 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,13 +1813,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,15 +1874,13 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,13 +1949,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Libros/pobrezaCSV.xlsx
+++ b/Libros/pobrezaCSV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,17 +13,19 @@
     <sheet name="1_03" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="1_04" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="1_05" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="1_06" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="1_07" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="1_08" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="1_09" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="1_10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="1_11" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="1_12" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="1_13" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="1_14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="1_15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="1_16" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="1_08" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="1_09" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="1_10" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="1_11" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="1_12" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="1_13" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="1_14" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="1_15" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="1_16" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="1_17" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="1_18" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="1_06" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="1_07" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -293,7 +295,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -337,7 +339,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,8 +414,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,7 +627,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,7 +689,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,14 +745,15 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,7 +964,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,8 +1026,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,8 +1239,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,6 +1318,428 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>33.3336838638964</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>53.2043935052531</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>41.1277998451196</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>66.06087369572</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>52.9398655720351</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>54.292138830247</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="n">
+        <v>80.9470876404215</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>77.452128998555</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>56.028670608054</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>63.764635724212</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>56.060619785674</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>60.2159522458816</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>73.75192035774</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>74.680009983183</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <v>66.2970223408929</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>83.089677017092</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>60.837093016334</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>59.87855051911</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="n">
+        <v>55.9280343260121</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="n">
+        <v>70.617664132826</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="n">
+        <v>67.235343244634</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="n">
+        <v>62.741680290132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>17.0336838638964</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>11.4043935052531</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>4.6277998451196</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>5.56087369572001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>11.5398655720351</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>-3.607861169753</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="n">
+        <v>6.34708764042151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>5.55212899855499</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>12.028670608054</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>9.064635724212</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>5.660619785674</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>-5.2840477541184</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>2.45192035774001</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>-6.319990016817</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <v>-4.10297765910711</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>4.289677017092</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>3.837093016334</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>8.17855051911</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="n">
+        <v>2.0280343260121</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="n">
+        <v>11.117664132826</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="n">
+        <v>6.03534324463399</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="n">
+        <v>15.441680290132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1322,7 +1753,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,7 +1815,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1903,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,8 +1978,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,13 +2185,14 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A2:A23 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +2254,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,8 +2316,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +2393,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Libros/pobrezaCSV.xlsx
+++ b/Libros/pobrezaCSV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -60,22 +60,13 @@
     <t>Pobreza extrema</t>
   </si>
   <si>
-    <t>De 0 a 4</t>
-  </si>
-  <si>
-    <t>De 5 a 9</t>
-  </si>
-  <si>
-    <t>De 10 a 14</t>
-  </si>
-  <si>
-    <t>De 15 a 17</t>
-  </si>
-  <si>
     <t>De 0 a 17</t>
   </si>
   <si>
-    <t>Entre 18 y 19</t>
+    <t>De 0 a 9</t>
+  </si>
+  <si>
+    <t>De 10 a 17</t>
   </si>
 </sst>
 </file>
@@ -295,7 +286,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -334,12 +325,12 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A2:A23 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A2:B2 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -409,13 +400,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A2:B2 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -622,12 +613,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A23 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -684,12 +675,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A23 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -746,13 +737,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -959,12 +950,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A23 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1021,13 +1012,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1231,10 +1222,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B65536"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1256,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="21" t="n">
-        <v>70.1138131411546</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="21" t="n">
-        <v>70.3386269988124</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,41 +1263,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="21" t="n">
-        <v>67.3464227240395</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21" t="n">
-        <v>63.4863212160658</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="21" t="n">
-        <v>68.2225355103856</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="21" t="n">
-        <v>58.860187497789</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>65.9</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1326,12 +1292,12 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,13 +1502,13 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,12 +1714,12 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A2:A23 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A2:B2 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1810,7 +1776,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A2:A23 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A2:B2 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1898,12 +1864,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1973,13 +1939,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A2:A23 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A2:B2 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2185,13 +2151,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A2:A23 B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2249,12 +2215,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2311,14 +2277,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2388,12 +2354,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
